--- a/PricerAndQutation/OptionPricer_v2_20180428.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20180428.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602"/>
   </bookViews>
   <sheets>
     <sheet name="quate_van" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="241">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -892,6 +892,10 @@
   </si>
   <si>
     <t>cu1807</t>
+  </si>
+  <si>
+    <t>rb1810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1612,6 +1616,7 @@
     <xf numFmtId="180" fontId="12" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="178" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1636,11 +1641,17 @@
     <xf numFmtId="14" fontId="32" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="32" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1651,22 +1662,22 @@
     <xf numFmtId="0" fontId="28" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1674,12 +1685,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1690,7 +1695,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -1714,21 +1718,21 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>51520</v>
+        <v>51410</v>
         <stp/>
         <stp>cu1808</stp>
         <stp>LastPrice</stp>
         <tr r="P18" s="9"/>
       </tp>
       <tp>
-        <v>51380</v>
+        <v>51230</v>
         <stp/>
         <stp>cu1807</stp>
         <stp>LastPrice</stp>
         <tr r="P13" s="1"/>
       </tp>
       <tp>
-        <v>14590</v>
+        <v>14720</v>
         <stp/>
         <stp>al1808</stp>
         <stp>LastPrice</stp>
@@ -1744,34 +1748,34 @@
         <tr r="P21" s="9"/>
       </tp>
       <tp>
-        <v>3626</v>
+        <v>3643</v>
         <stp/>
         <stp>ag1806</stp>
         <stp>LastPrice</stp>
         <tr r="P18" s="1"/>
       </tp>
       <tp>
-        <v>104510</v>
+        <v>104240</v>
         <stp/>
         <stp>ni1809</stp>
         <stp>LastPrice</stp>
+        <tr r="P15" s="1"/>
         <tr r="P16" s="1"/>
-        <tr r="P15" s="1"/>
       </tp>
       <tp>
-        <v>3727</v>
+        <v>3673</v>
         <stp/>
         <stp>rb1810</stp>
         <stp>LastPrice</stp>
         <tr r="P14" s="9"/>
       </tp>
       <tp>
-        <v>4098</v>
+        <v>4029</v>
         <stp/>
         <stp>RB1805</stp>
         <stp>LastPrice</stp>
+        <tr r="H8" s="7"/>
         <tr r="H8" s="8"/>
-        <tr r="H8" s="7"/>
       </tp>
     </main>
   </volType>
@@ -2066,10 +2070,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:R21"/>
+  <dimension ref="B1:R25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA24" sqref="AA24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2095,11 +2099,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="117" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
     </row>
     <row r="2" spans="2:18" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:18" ht="13.5" x14ac:dyDescent="0.15">
@@ -2992,6 +2996,214 @@
       </c>
       <c r="R21" s="92" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B22" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O22" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B23" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="92" t="s">
+        <v>239</v>
+      </c>
+      <c r="D23" s="93">
+        <v>43223</v>
+      </c>
+      <c r="E23" s="93">
+        <v>43251</v>
+      </c>
+      <c r="F23" s="92">
+        <v>48000</v>
+      </c>
+      <c r="G23" s="92">
+        <v>28</v>
+      </c>
+      <c r="H23" s="92">
+        <v>7.6712328767123292E-2</v>
+      </c>
+      <c r="I23" s="92">
+        <v>0</v>
+      </c>
+      <c r="J23" s="92">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K23" s="92">
+        <v>40.620185749357461</v>
+      </c>
+      <c r="L23" s="92">
+        <v>30</v>
+      </c>
+      <c r="M23" s="92">
+        <v>11.771506849315069</v>
+      </c>
+      <c r="N23" s="99">
+        <v>28.848678900042394</v>
+      </c>
+      <c r="O23" s="92">
+        <v>51150</v>
+      </c>
+      <c r="P23" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q23" s="92">
+        <v>1</v>
+      </c>
+      <c r="R23" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B24" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O24" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B25" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="92" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" s="93">
+        <v>43223</v>
+      </c>
+      <c r="E25" s="93">
+        <v>43251</v>
+      </c>
+      <c r="F25" s="92">
+        <v>3660</v>
+      </c>
+      <c r="G25" s="92">
+        <v>28</v>
+      </c>
+      <c r="H25" s="92">
+        <v>7.6712328767123292E-2</v>
+      </c>
+      <c r="I25" s="92">
+        <v>0</v>
+      </c>
+      <c r="J25" s="92">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="K25" s="92">
+        <v>-119.08543433615614</v>
+      </c>
+      <c r="L25" s="92">
+        <v>70</v>
+      </c>
+      <c r="M25" s="92">
+        <v>1.9653698630136986</v>
+      </c>
+      <c r="N25" s="99">
+        <v>121.05080419916985</v>
+      </c>
+      <c r="O25" s="92">
+        <v>3660</v>
+      </c>
+      <c r="P25" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q25" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R25" s="92" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3026,75 +3238,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="137" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="132"/>
+      <c r="C1" s="137"/>
     </row>
     <row r="2" spans="2:20" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:20" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="136" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="G3" s="137" t="s">
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="G3" s="135" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="L3" s="133" t="s">
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="L3" s="136" t="s">
         <v>165</v>
       </c>
-      <c r="M3" s="133"/>
-      <c r="N3" s="133"/>
-      <c r="O3" s="133"/>
-      <c r="Q3" s="137" t="s">
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
+      <c r="Q3" s="135" t="s">
         <v>166</v>
       </c>
-      <c r="R3" s="137"/>
-      <c r="S3" s="137"/>
-      <c r="T3" s="137"/>
+      <c r="R3" s="135"/>
+      <c r="S3" s="135"/>
+      <c r="T3" s="135"/>
     </row>
     <row r="4" spans="2:20" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="128" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="G4" s="134" t="s">
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="G4" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="L4" s="134" t="s">
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="L4" s="128" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="134"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="134"/>
-      <c r="Q4" s="134" t="s">
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="Q4" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="134"/>
-      <c r="S4" s="134"/>
-      <c r="T4" s="134"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
     </row>
     <row r="5" spans="2:20" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="132" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="131"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="136"/>
-      <c r="G5" s="131" t="s">
+      <c r="C5" s="132"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="139"/>
+      <c r="G5" s="132" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="131"/>
+      <c r="H5" s="132"/>
       <c r="I5" s="103"/>
       <c r="J5" s="104"/>
       <c r="L5" s="101" t="s">
@@ -3103,360 +3315,360 @@
       <c r="M5" s="102"/>
       <c r="N5" s="103"/>
       <c r="O5" s="104"/>
-      <c r="Q5" s="131" t="s">
+      <c r="Q5" s="132" t="s">
         <v>123</v>
       </c>
-      <c r="R5" s="131"/>
+      <c r="R5" s="132"/>
       <c r="S5" s="103"/>
       <c r="T5" s="104"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B6" s="131" t="s">
+      <c r="B6" s="132" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="131"/>
-      <c r="D6" s="129" t="s">
+      <c r="C6" s="132"/>
+      <c r="D6" s="133" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="130"/>
-      <c r="G6" s="131" t="s">
+      <c r="E6" s="134"/>
+      <c r="G6" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="131"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="130"/>
-      <c r="L6" s="131" t="s">
+      <c r="H6" s="132"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="134"/>
+      <c r="L6" s="132" t="s">
         <v>124</v>
       </c>
-      <c r="M6" s="131"/>
-      <c r="N6" s="129" t="s">
+      <c r="M6" s="132"/>
+      <c r="N6" s="133" t="s">
         <v>125</v>
       </c>
-      <c r="O6" s="130"/>
-      <c r="Q6" s="131" t="s">
+      <c r="O6" s="134"/>
+      <c r="Q6" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="R6" s="131"/>
-      <c r="S6" s="129"/>
-      <c r="T6" s="130"/>
+      <c r="R6" s="132"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="134"/>
     </row>
     <row r="7" spans="2:20" ht="2.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="132" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="131"/>
-      <c r="D7" s="129" t="s">
+      <c r="C7" s="132"/>
+      <c r="D7" s="133" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="130"/>
-      <c r="G7" s="131" t="s">
+      <c r="E7" s="134"/>
+      <c r="G7" s="132" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="131"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="130"/>
-      <c r="L7" s="131" t="s">
+      <c r="H7" s="132"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="134"/>
+      <c r="L7" s="132" t="s">
         <v>127</v>
       </c>
-      <c r="M7" s="131"/>
-      <c r="N7" s="129" t="s">
+      <c r="M7" s="132"/>
+      <c r="N7" s="133" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="130"/>
-      <c r="Q7" s="131" t="s">
+      <c r="O7" s="134"/>
+      <c r="Q7" s="132" t="s">
         <v>128</v>
       </c>
-      <c r="R7" s="131"/>
-      <c r="S7" s="129"/>
-      <c r="T7" s="130"/>
+      <c r="R7" s="132"/>
+      <c r="S7" s="133"/>
+      <c r="T7" s="134"/>
     </row>
     <row r="8" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="132" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="129">
+      <c r="C8" s="132"/>
+      <c r="D8" s="133">
         <f>D13*D15</f>
         <v>305000</v>
       </c>
-      <c r="E8" s="130"/>
-      <c r="G8" s="131" t="s">
+      <c r="E8" s="134"/>
+      <c r="G8" s="132" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="131"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="130"/>
-      <c r="L8" s="131" t="s">
+      <c r="H8" s="132"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="134"/>
+      <c r="L8" s="132" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="131"/>
-      <c r="N8" s="129">
+      <c r="M8" s="132"/>
+      <c r="N8" s="133">
         <f>N14*N16</f>
         <v>305000</v>
       </c>
-      <c r="O8" s="130"/>
-      <c r="Q8" s="131" t="s">
+      <c r="O8" s="134"/>
+      <c r="Q8" s="132" t="s">
         <v>130</v>
       </c>
-      <c r="R8" s="131"/>
-      <c r="S8" s="129"/>
-      <c r="T8" s="130"/>
+      <c r="R8" s="132"/>
+      <c r="S8" s="133"/>
+      <c r="T8" s="134"/>
     </row>
     <row r="9" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="131" t="s">
+      <c r="B9" s="132" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="131"/>
-      <c r="D9" s="129" t="s">
+      <c r="C9" s="132"/>
+      <c r="D9" s="133" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="130"/>
-      <c r="G9" s="131" t="s">
+      <c r="E9" s="134"/>
+      <c r="G9" s="132" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="131"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="130"/>
-      <c r="L9" s="131" t="s">
+      <c r="H9" s="132"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="134"/>
+      <c r="L9" s="132" t="s">
         <v>131</v>
       </c>
-      <c r="M9" s="131"/>
-      <c r="N9" s="129" t="s">
+      <c r="M9" s="132"/>
+      <c r="N9" s="133" t="s">
         <v>132</v>
       </c>
-      <c r="O9" s="130"/>
-      <c r="Q9" s="131" t="s">
+      <c r="O9" s="134"/>
+      <c r="Q9" s="132" t="s">
         <v>133</v>
       </c>
-      <c r="R9" s="131"/>
-      <c r="S9" s="129"/>
-      <c r="T9" s="130"/>
+      <c r="R9" s="132"/>
+      <c r="S9" s="133"/>
+      <c r="T9" s="134"/>
     </row>
     <row r="10" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="132" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="131"/>
-      <c r="D10" s="129">
+      <c r="C10" s="132"/>
+      <c r="D10" s="133">
         <v>43084</v>
       </c>
-      <c r="E10" s="130"/>
+      <c r="E10" s="134"/>
       <c r="G10" s="105" t="s">
         <v>135</v>
       </c>
       <c r="H10" s="105"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="130"/>
-      <c r="L10" s="131" t="s">
+      <c r="I10" s="133"/>
+      <c r="J10" s="134"/>
+      <c r="L10" s="132" t="s">
         <v>134</v>
       </c>
-      <c r="M10" s="131"/>
-      <c r="N10" s="129">
+      <c r="M10" s="132"/>
+      <c r="N10" s="133">
         <v>43084</v>
       </c>
-      <c r="O10" s="130"/>
+      <c r="O10" s="134"/>
       <c r="Q10" s="105" t="s">
         <v>135</v>
       </c>
       <c r="R10" s="105"/>
-      <c r="S10" s="129"/>
-      <c r="T10" s="130"/>
+      <c r="S10" s="133"/>
+      <c r="T10" s="134"/>
     </row>
     <row r="11" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="132" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="131"/>
-      <c r="D11" s="129">
+      <c r="C11" s="132"/>
+      <c r="D11" s="133">
         <v>3935</v>
       </c>
-      <c r="E11" s="130"/>
-      <c r="G11" s="131" t="s">
+      <c r="E11" s="134"/>
+      <c r="G11" s="132" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="131"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="130"/>
-      <c r="L11" s="131" t="s">
+      <c r="H11" s="132"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="134"/>
+      <c r="L11" s="132" t="s">
         <v>136</v>
       </c>
-      <c r="M11" s="131"/>
-      <c r="N11" s="129">
+      <c r="M11" s="132"/>
+      <c r="N11" s="133">
         <v>3935</v>
       </c>
-      <c r="O11" s="130"/>
-      <c r="Q11" s="131" t="s">
+      <c r="O11" s="134"/>
+      <c r="Q11" s="132" t="s">
         <v>137</v>
       </c>
-      <c r="R11" s="131"/>
-      <c r="S11" s="129"/>
-      <c r="T11" s="130"/>
+      <c r="R11" s="132"/>
+      <c r="S11" s="133"/>
+      <c r="T11" s="134"/>
     </row>
     <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="131" t="s">
+      <c r="B12" s="132" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="131"/>
-      <c r="D12" s="129">
+      <c r="C12" s="132"/>
+      <c r="D12" s="133">
         <v>3800</v>
       </c>
-      <c r="E12" s="130"/>
-      <c r="G12" s="131" t="s">
+      <c r="E12" s="134"/>
+      <c r="G12" s="132" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="131"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="130"/>
-      <c r="L12" s="131" t="s">
+      <c r="H12" s="132"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="134"/>
+      <c r="L12" s="132" t="s">
         <v>163</v>
       </c>
-      <c r="M12" s="131"/>
-      <c r="N12" s="129">
+      <c r="M12" s="132"/>
+      <c r="N12" s="133">
         <v>3800</v>
       </c>
-      <c r="O12" s="130"/>
-      <c r="Q12" s="131" t="s">
+      <c r="O12" s="134"/>
+      <c r="Q12" s="132" t="s">
         <v>167</v>
       </c>
-      <c r="R12" s="131"/>
-      <c r="S12" s="129"/>
-      <c r="T12" s="130"/>
+      <c r="R12" s="132"/>
+      <c r="S12" s="133"/>
+      <c r="T12" s="134"/>
     </row>
     <row r="13" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="131" t="s">
+      <c r="B13" s="132" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="131"/>
-      <c r="D13" s="129">
+      <c r="C13" s="132"/>
+      <c r="D13" s="133">
         <v>61</v>
       </c>
-      <c r="E13" s="130"/>
-      <c r="G13" s="131" t="s">
+      <c r="E13" s="134"/>
+      <c r="G13" s="132" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="131"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="130"/>
-      <c r="L13" s="131" t="s">
+      <c r="H13" s="132"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="134"/>
+      <c r="L13" s="132" t="s">
         <v>164</v>
       </c>
-      <c r="M13" s="131"/>
-      <c r="N13" s="129">
+      <c r="M13" s="132"/>
+      <c r="N13" s="133">
         <v>3800</v>
       </c>
-      <c r="O13" s="130"/>
-      <c r="Q13" s="131" t="s">
+      <c r="O13" s="134"/>
+      <c r="Q13" s="132" t="s">
         <v>168</v>
       </c>
-      <c r="R13" s="131"/>
-      <c r="S13" s="129"/>
-      <c r="T13" s="130"/>
+      <c r="R13" s="132"/>
+      <c r="S13" s="133"/>
+      <c r="T13" s="134"/>
     </row>
     <row r="14" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="131" t="s">
+      <c r="B14" s="132" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="131"/>
-      <c r="D14" s="129" t="s">
+      <c r="C14" s="132"/>
+      <c r="D14" s="133" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="130"/>
-      <c r="G14" s="131" t="s">
+      <c r="E14" s="134"/>
+      <c r="G14" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="131"/>
+      <c r="H14" s="132"/>
       <c r="I14" s="106"/>
       <c r="J14" s="107"/>
-      <c r="L14" s="131" t="s">
+      <c r="L14" s="132" t="s">
         <v>140</v>
       </c>
-      <c r="M14" s="131"/>
-      <c r="N14" s="129">
+      <c r="M14" s="132"/>
+      <c r="N14" s="133">
         <v>61</v>
       </c>
-      <c r="O14" s="130"/>
-      <c r="Q14" s="131" t="s">
+      <c r="O14" s="134"/>
+      <c r="Q14" s="132" t="s">
         <v>141</v>
       </c>
-      <c r="R14" s="131"/>
-      <c r="S14" s="129"/>
-      <c r="T14" s="130"/>
+      <c r="R14" s="132"/>
+      <c r="S14" s="133"/>
+      <c r="T14" s="134"/>
     </row>
     <row r="15" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="131" t="s">
+      <c r="B15" s="132" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="131"/>
-      <c r="D15" s="129">
+      <c r="C15" s="132"/>
+      <c r="D15" s="133">
         <v>5000</v>
       </c>
-      <c r="E15" s="130"/>
-      <c r="G15" s="131" t="s">
+      <c r="E15" s="134"/>
+      <c r="G15" s="132" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="131"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="130"/>
-      <c r="L15" s="131" t="s">
+      <c r="H15" s="132"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="134"/>
+      <c r="L15" s="132" t="s">
         <v>142</v>
       </c>
-      <c r="M15" s="131"/>
-      <c r="N15" s="129" t="s">
+      <c r="M15" s="132"/>
+      <c r="N15" s="133" t="s">
         <v>143</v>
       </c>
-      <c r="O15" s="130"/>
-      <c r="Q15" s="131" t="s">
+      <c r="O15" s="134"/>
+      <c r="Q15" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="R15" s="131"/>
+      <c r="R15" s="132"/>
       <c r="S15" s="106"/>
       <c r="T15" s="107"/>
     </row>
     <row r="16" spans="2:20" ht="11.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="126" t="s">
+      <c r="B16" s="129" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="126"/>
-      <c r="D16" s="127" t="s">
+      <c r="C16" s="129"/>
+      <c r="D16" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="128"/>
-      <c r="G16" s="126" t="s">
+      <c r="E16" s="131"/>
+      <c r="G16" s="129" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="128"/>
-      <c r="L16" s="131" t="s">
+      <c r="H16" s="129"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="131"/>
+      <c r="L16" s="132" t="s">
         <v>145</v>
       </c>
-      <c r="M16" s="131"/>
-      <c r="N16" s="129">
+      <c r="M16" s="132"/>
+      <c r="N16" s="133">
         <v>5000</v>
       </c>
-      <c r="O16" s="130"/>
-      <c r="Q16" s="131" t="s">
+      <c r="O16" s="134"/>
+      <c r="Q16" s="132" t="s">
         <v>146</v>
       </c>
-      <c r="R16" s="131"/>
-      <c r="S16" s="129"/>
-      <c r="T16" s="130"/>
+      <c r="R16" s="132"/>
+      <c r="S16" s="133"/>
+      <c r="T16" s="134"/>
     </row>
     <row r="17" spans="2:25" ht="12" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="L17" s="126" t="s">
+      <c r="L17" s="129" t="s">
         <v>147</v>
       </c>
-      <c r="M17" s="126"/>
-      <c r="N17" s="127" t="s">
+      <c r="M17" s="129"/>
+      <c r="N17" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="O17" s="128"/>
-      <c r="Q17" s="126" t="s">
+      <c r="O17" s="131"/>
+      <c r="Q17" s="129" t="s">
         <v>149</v>
       </c>
-      <c r="R17" s="126"/>
-      <c r="S17" s="127"/>
-      <c r="T17" s="128"/>
+      <c r="R17" s="129"/>
+      <c r="S17" s="130"/>
+      <c r="T17" s="131"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" s="108" t="s">
@@ -3486,1149 +3698,1155 @@
       <c r="Y21" s="109"/>
     </row>
     <row r="22" spans="2:25" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="124" t="s">
+      <c r="B22" s="126" t="s">
         <v>223</v>
       </c>
-      <c r="C22" s="124"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="G22" s="124" t="s">
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="G22" s="126" t="s">
         <v>189</v>
       </c>
-      <c r="H22" s="124"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="124"/>
-      <c r="L22" s="134" t="s">
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="126"/>
+      <c r="L22" s="128" t="s">
         <v>189</v>
       </c>
-      <c r="M22" s="134"/>
-      <c r="N22" s="134"/>
-      <c r="O22" s="134"/>
-      <c r="Q22" s="124" t="s">
+      <c r="M22" s="128"/>
+      <c r="N22" s="128"/>
+      <c r="O22" s="128"/>
+      <c r="Q22" s="126" t="s">
         <v>188</v>
       </c>
-      <c r="R22" s="124"/>
-      <c r="S22" s="124"/>
-      <c r="T22" s="124"/>
-      <c r="V22" s="134" t="s">
+      <c r="R22" s="126"/>
+      <c r="S22" s="126"/>
+      <c r="T22" s="126"/>
+      <c r="V22" s="128" t="s">
         <v>189</v>
       </c>
-      <c r="W22" s="134"/>
-      <c r="X22" s="134"/>
-      <c r="Y22" s="134"/>
+      <c r="W22" s="128"/>
+      <c r="X22" s="128"/>
+      <c r="Y22" s="128"/>
     </row>
     <row r="23" spans="2:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="117" t="s">
+      <c r="B23" s="118" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="117"/>
-      <c r="D23" s="123">
+      <c r="C23" s="118"/>
+      <c r="D23" s="124">
         <v>43209</v>
       </c>
-      <c r="E23" s="125"/>
-      <c r="G23" s="117" t="s">
+      <c r="E23" s="127"/>
+      <c r="G23" s="118" t="s">
         <v>122</v>
       </c>
-      <c r="H23" s="117"/>
-      <c r="I23" s="123">
+      <c r="H23" s="118"/>
+      <c r="I23" s="124">
         <f ca="1">TODAY()</f>
+        <v>43223</v>
+      </c>
+      <c r="J23" s="127"/>
+      <c r="L23" s="118" t="s">
+        <v>122</v>
+      </c>
+      <c r="M23" s="118"/>
+      <c r="N23" s="124">
+        <f ca="1">TODAY()</f>
+        <v>43223</v>
+      </c>
+      <c r="O23" s="127"/>
+      <c r="Q23" s="118" t="s">
+        <v>122</v>
+      </c>
+      <c r="R23" s="118"/>
+      <c r="S23" s="124">
+        <f ca="1">TODAY()-1</f>
         <v>43222</v>
       </c>
-      <c r="J23" s="125"/>
-      <c r="L23" s="117" t="s">
+      <c r="T23" s="127"/>
+      <c r="V23" s="118" t="s">
         <v>122</v>
       </c>
-      <c r="M23" s="117"/>
-      <c r="N23" s="123">
-        <f ca="1">TODAY()</f>
+      <c r="W23" s="118"/>
+      <c r="X23" s="124">
+        <f ca="1">TODAY()-1</f>
         <v>43222</v>
       </c>
-      <c r="O23" s="125"/>
-      <c r="Q23" s="117" t="s">
-        <v>122</v>
-      </c>
-      <c r="R23" s="117"/>
-      <c r="S23" s="123">
-        <f ca="1">TODAY()-1</f>
-        <v>43221</v>
-      </c>
-      <c r="T23" s="125"/>
-      <c r="V23" s="117" t="s">
-        <v>122</v>
-      </c>
-      <c r="W23" s="117"/>
-      <c r="X23" s="123">
-        <f ca="1">TODAY()-1</f>
-        <v>43221</v>
-      </c>
-      <c r="Y23" s="125"/>
+      <c r="Y23" s="127"/>
     </row>
     <row r="24" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B24" s="117" t="s">
+      <c r="B24" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="117"/>
-      <c r="D24" s="118" t="s">
+      <c r="C24" s="118"/>
+      <c r="D24" s="119" t="s">
         <v>186</v>
       </c>
-      <c r="E24" s="119"/>
-      <c r="G24" s="117" t="s">
+      <c r="E24" s="120"/>
+      <c r="G24" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="H24" s="117"/>
-      <c r="I24" s="118" t="s">
+      <c r="H24" s="118"/>
+      <c r="I24" s="119" t="s">
         <v>186</v>
       </c>
-      <c r="J24" s="119"/>
-      <c r="L24" s="117" t="s">
+      <c r="J24" s="120"/>
+      <c r="L24" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="M24" s="117"/>
-      <c r="N24" s="118" t="s">
+      <c r="M24" s="118"/>
+      <c r="N24" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="O24" s="119"/>
-      <c r="Q24" s="117" t="s">
+      <c r="O24" s="120"/>
+      <c r="Q24" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="R24" s="117"/>
-      <c r="S24" s="118" t="s">
+      <c r="R24" s="118"/>
+      <c r="S24" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="T24" s="119"/>
-      <c r="V24" s="117" t="s">
+      <c r="T24" s="120"/>
+      <c r="V24" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="W24" s="117"/>
-      <c r="X24" s="118" t="s">
+      <c r="W24" s="118"/>
+      <c r="X24" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="Y24" s="119"/>
+      <c r="Y24" s="120"/>
     </row>
     <row r="25" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B25" s="117" t="s">
+      <c r="B25" s="118" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="117"/>
-      <c r="D25" s="118" t="s">
+      <c r="C25" s="118"/>
+      <c r="D25" s="119" t="s">
         <v>224</v>
       </c>
-      <c r="E25" s="119"/>
-      <c r="G25" s="117" t="s">
+      <c r="E25" s="120"/>
+      <c r="G25" s="118" t="s">
         <v>127</v>
       </c>
-      <c r="H25" s="117"/>
-      <c r="I25" s="118" t="s">
+      <c r="H25" s="118"/>
+      <c r="I25" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="J25" s="119"/>
-      <c r="L25" s="117" t="s">
+      <c r="J25" s="120"/>
+      <c r="L25" s="118" t="s">
         <v>127</v>
       </c>
-      <c r="M25" s="117"/>
-      <c r="N25" s="118" t="s">
+      <c r="M25" s="118"/>
+      <c r="N25" s="119" t="s">
         <v>195</v>
       </c>
-      <c r="O25" s="119"/>
-      <c r="Q25" s="117" t="s">
+      <c r="O25" s="120"/>
+      <c r="Q25" s="118" t="s">
         <v>127</v>
       </c>
-      <c r="R25" s="117"/>
-      <c r="S25" s="118" t="s">
+      <c r="R25" s="118"/>
+      <c r="S25" s="119" t="s">
         <v>187</v>
       </c>
-      <c r="T25" s="119"/>
-      <c r="V25" s="117" t="s">
+      <c r="T25" s="120"/>
+      <c r="V25" s="118" t="s">
         <v>127</v>
       </c>
-      <c r="W25" s="117"/>
-      <c r="X25" s="118" t="s">
+      <c r="W25" s="118"/>
+      <c r="X25" s="119" t="s">
         <v>187</v>
       </c>
-      <c r="Y25" s="119"/>
+      <c r="Y25" s="120"/>
     </row>
     <row r="26" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B26" s="117" t="s">
+      <c r="B26" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="117"/>
-      <c r="D26" s="118">
+      <c r="C26" s="118"/>
+      <c r="D26" s="119">
         <f>D31*D33</f>
         <v>290000</v>
       </c>
-      <c r="E26" s="119"/>
-      <c r="G26" s="117" t="s">
+      <c r="E26" s="120"/>
+      <c r="G26" s="118" t="s">
         <v>179</v>
       </c>
-      <c r="H26" s="117"/>
-      <c r="I26" s="118">
+      <c r="H26" s="118"/>
+      <c r="I26" s="119">
         <f>I31*I33</f>
         <v>271800</v>
       </c>
-      <c r="J26" s="119"/>
-      <c r="L26" s="117" t="s">
+      <c r="J26" s="120"/>
+      <c r="L26" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="M26" s="117"/>
-      <c r="N26" s="118">
+      <c r="M26" s="118"/>
+      <c r="N26" s="119">
         <f>N31*N33</f>
         <v>275000</v>
       </c>
-      <c r="O26" s="119"/>
-      <c r="Q26" s="117" t="s">
+      <c r="O26" s="120"/>
+      <c r="Q26" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="R26" s="117"/>
-      <c r="S26" s="118">
+      <c r="R26" s="118"/>
+      <c r="S26" s="119">
         <f>S31*S33</f>
         <v>235799.99999999997</v>
       </c>
-      <c r="T26" s="119"/>
-      <c r="V26" s="117" t="s">
+      <c r="T26" s="120"/>
+      <c r="V26" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="W26" s="117"/>
-      <c r="X26" s="118">
+      <c r="W26" s="118"/>
+      <c r="X26" s="119">
         <f>X31*X33</f>
         <v>235799.99999999997</v>
       </c>
-      <c r="Y26" s="119"/>
+      <c r="Y26" s="120"/>
     </row>
     <row r="27" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B27" s="117" t="s">
+      <c r="B27" s="118" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="117"/>
-      <c r="D27" s="118" t="s">
+      <c r="C27" s="118"/>
+      <c r="D27" s="119" t="s">
         <v>191</v>
       </c>
-      <c r="E27" s="119"/>
+      <c r="E27" s="120"/>
       <c r="F27" s="100">
         <f>1160*250</f>
         <v>290000</v>
       </c>
-      <c r="G27" s="117" t="s">
+      <c r="G27" s="118" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="117"/>
-      <c r="I27" s="118" t="s">
+      <c r="H27" s="118"/>
+      <c r="I27" s="119" t="s">
         <v>197</v>
       </c>
-      <c r="J27" s="119"/>
-      <c r="L27" s="117" t="s">
+      <c r="J27" s="120"/>
+      <c r="L27" s="118" t="s">
         <v>131</v>
       </c>
-      <c r="M27" s="117"/>
-      <c r="N27" s="118" t="s">
+      <c r="M27" s="118"/>
+      <c r="N27" s="119" t="s">
         <v>190</v>
       </c>
-      <c r="O27" s="119"/>
-      <c r="Q27" s="117" t="s">
+      <c r="O27" s="120"/>
+      <c r="Q27" s="118" t="s">
         <v>131</v>
       </c>
-      <c r="R27" s="117"/>
-      <c r="S27" s="118" t="s">
+      <c r="R27" s="118"/>
+      <c r="S27" s="119" t="s">
         <v>191</v>
       </c>
-      <c r="T27" s="119"/>
-      <c r="V27" s="117" t="s">
+      <c r="T27" s="120"/>
+      <c r="V27" s="118" t="s">
         <v>131</v>
       </c>
-      <c r="W27" s="117"/>
-      <c r="X27" s="118" t="s">
+      <c r="W27" s="118"/>
+      <c r="X27" s="119" t="s">
         <v>190</v>
       </c>
-      <c r="Y27" s="119"/>
+      <c r="Y27" s="120"/>
     </row>
     <row r="28" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B28" s="117" t="s">
+      <c r="B28" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="117"/>
-      <c r="D28" s="123">
+      <c r="C28" s="118"/>
+      <c r="D28" s="124">
         <v>43222</v>
       </c>
-      <c r="E28" s="119"/>
-      <c r="G28" s="117" t="s">
+      <c r="E28" s="120"/>
+      <c r="G28" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="H28" s="117"/>
-      <c r="I28" s="123">
+      <c r="H28" s="118"/>
+      <c r="I28" s="124">
         <v>43182</v>
       </c>
-      <c r="J28" s="119"/>
-      <c r="L28" s="117" t="s">
+      <c r="J28" s="120"/>
+      <c r="L28" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="M28" s="117"/>
-      <c r="N28" s="123">
+      <c r="M28" s="118"/>
+      <c r="N28" s="124">
         <v>43219</v>
       </c>
-      <c r="O28" s="119"/>
-      <c r="Q28" s="117" t="s">
+      <c r="O28" s="120"/>
+      <c r="Q28" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="R28" s="117"/>
-      <c r="S28" s="123">
+      <c r="R28" s="118"/>
+      <c r="S28" s="124">
         <v>43201</v>
       </c>
-      <c r="T28" s="119"/>
-      <c r="V28" s="117" t="s">
+      <c r="T28" s="120"/>
+      <c r="V28" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="W28" s="117"/>
-      <c r="X28" s="123">
+      <c r="W28" s="118"/>
+      <c r="X28" s="124">
         <v>43201</v>
       </c>
-      <c r="Y28" s="119"/>
+      <c r="Y28" s="120"/>
     </row>
     <row r="29" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B29" s="117" t="s">
+      <c r="B29" s="118" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="117"/>
-      <c r="D29" s="118">
+      <c r="C29" s="118"/>
+      <c r="D29" s="119">
         <v>108500</v>
       </c>
-      <c r="E29" s="119"/>
-      <c r="G29" s="117" t="s">
+      <c r="E29" s="120"/>
+      <c r="G29" s="118" t="s">
         <v>136</v>
       </c>
-      <c r="H29" s="117"/>
-      <c r="I29" s="118">
+      <c r="H29" s="118"/>
+      <c r="I29" s="119">
         <v>3856</v>
       </c>
-      <c r="J29" s="119"/>
-      <c r="L29" s="117" t="s">
+      <c r="J29" s="120"/>
+      <c r="L29" s="118" t="s">
         <v>136</v>
       </c>
-      <c r="M29" s="117"/>
-      <c r="N29" s="118">
+      <c r="M29" s="118"/>
+      <c r="N29" s="119">
         <v>3760</v>
       </c>
-      <c r="O29" s="119"/>
-      <c r="Q29" s="117" t="s">
+      <c r="O29" s="120"/>
+      <c r="Q29" s="118" t="s">
         <v>136</v>
       </c>
-      <c r="R29" s="117"/>
-      <c r="S29" s="118">
+      <c r="R29" s="118"/>
+      <c r="S29" s="119">
         <v>524</v>
       </c>
-      <c r="T29" s="119"/>
-      <c r="V29" s="117" t="s">
+      <c r="T29" s="120"/>
+      <c r="V29" s="118" t="s">
         <v>136</v>
       </c>
-      <c r="W29" s="117"/>
-      <c r="X29" s="118">
+      <c r="W29" s="118"/>
+      <c r="X29" s="119">
         <v>524</v>
       </c>
-      <c r="Y29" s="119"/>
+      <c r="Y29" s="120"/>
     </row>
     <row r="30" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B30" s="117" t="s">
+      <c r="B30" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="117"/>
-      <c r="D30" s="118">
+      <c r="C30" s="118"/>
+      <c r="D30" s="119">
         <v>110000</v>
       </c>
-      <c r="E30" s="119"/>
-      <c r="G30" s="117" t="s">
+      <c r="E30" s="120"/>
+      <c r="G30" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="H30" s="117"/>
-      <c r="I30" s="118">
+      <c r="H30" s="118"/>
+      <c r="I30" s="119">
         <v>3930</v>
       </c>
-      <c r="J30" s="119"/>
-      <c r="L30" s="117" t="s">
+      <c r="J30" s="120"/>
+      <c r="L30" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="M30" s="117"/>
-      <c r="N30" s="118">
+      <c r="M30" s="118"/>
+      <c r="N30" s="119">
         <v>3700</v>
       </c>
-      <c r="O30" s="119"/>
-      <c r="Q30" s="117" t="s">
+      <c r="O30" s="120"/>
+      <c r="Q30" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="R30" s="117"/>
-      <c r="S30" s="118">
+      <c r="R30" s="118"/>
+      <c r="S30" s="119">
         <v>524</v>
       </c>
-      <c r="T30" s="119"/>
-      <c r="V30" s="117" t="s">
+      <c r="T30" s="120"/>
+      <c r="V30" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="W30" s="117"/>
-      <c r="X30" s="118">
+      <c r="W30" s="118"/>
+      <c r="X30" s="119">
         <v>524</v>
       </c>
-      <c r="Y30" s="119"/>
+      <c r="Y30" s="120"/>
     </row>
     <row r="31" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B31" s="117" t="s">
+      <c r="B31" s="118" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="117"/>
-      <c r="D31" s="118">
+      <c r="C31" s="118"/>
+      <c r="D31" s="119">
         <v>1160</v>
       </c>
-      <c r="E31" s="119"/>
-      <c r="G31" s="117" t="s">
+      <c r="E31" s="120"/>
+      <c r="G31" s="118" t="s">
         <v>198</v>
       </c>
-      <c r="H31" s="117"/>
-      <c r="I31" s="118">
+      <c r="H31" s="118"/>
+      <c r="I31" s="119">
         <v>27.18</v>
       </c>
-      <c r="J31" s="119"/>
-      <c r="L31" s="117" t="s">
+      <c r="J31" s="120"/>
+      <c r="L31" s="118" t="s">
         <v>140</v>
       </c>
-      <c r="M31" s="117"/>
-      <c r="N31" s="118">
+      <c r="M31" s="118"/>
+      <c r="N31" s="119">
         <v>55</v>
       </c>
-      <c r="O31" s="119"/>
-      <c r="Q31" s="117" t="s">
+      <c r="O31" s="120"/>
+      <c r="Q31" s="118" t="s">
         <v>140</v>
       </c>
-      <c r="R31" s="117"/>
-      <c r="S31" s="118">
+      <c r="R31" s="118"/>
+      <c r="S31" s="119">
         <v>23.58</v>
       </c>
-      <c r="T31" s="119"/>
-      <c r="V31" s="117" t="s">
+      <c r="T31" s="120"/>
+      <c r="V31" s="118" t="s">
         <v>140</v>
       </c>
-      <c r="W31" s="117"/>
-      <c r="X31" s="118">
+      <c r="W31" s="118"/>
+      <c r="X31" s="119">
         <v>23.58</v>
       </c>
-      <c r="Y31" s="119"/>
+      <c r="Y31" s="120"/>
     </row>
     <row r="32" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B32" s="117" t="s">
+      <c r="B32" s="118" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="117"/>
-      <c r="D32" s="118" t="s">
+      <c r="C32" s="118"/>
+      <c r="D32" s="119" t="s">
         <v>209</v>
       </c>
-      <c r="E32" s="119"/>
-      <c r="G32" s="117" t="s">
+      <c r="E32" s="120"/>
+      <c r="G32" s="118" t="s">
         <v>199</v>
       </c>
-      <c r="H32" s="117"/>
-      <c r="I32" s="118" t="s">
+      <c r="H32" s="118"/>
+      <c r="I32" s="119" t="s">
         <v>196</v>
       </c>
-      <c r="J32" s="119"/>
-      <c r="L32" s="117" t="s">
+      <c r="J32" s="120"/>
+      <c r="L32" s="118" t="s">
         <v>142</v>
       </c>
-      <c r="M32" s="117"/>
-      <c r="N32" s="118" t="s">
+      <c r="M32" s="118"/>
+      <c r="N32" s="119" t="s">
         <v>194</v>
       </c>
-      <c r="O32" s="119"/>
-      <c r="Q32" s="117" t="s">
+      <c r="O32" s="120"/>
+      <c r="Q32" s="118" t="s">
         <v>142</v>
       </c>
-      <c r="R32" s="117"/>
-      <c r="S32" s="118" t="s">
+      <c r="R32" s="118"/>
+      <c r="S32" s="119" t="s">
         <v>192</v>
       </c>
-      <c r="T32" s="119"/>
-      <c r="V32" s="117" t="s">
+      <c r="T32" s="120"/>
+      <c r="V32" s="118" t="s">
         <v>142</v>
       </c>
-      <c r="W32" s="117"/>
-      <c r="X32" s="118" t="s">
+      <c r="W32" s="118"/>
+      <c r="X32" s="119" t="s">
         <v>192</v>
       </c>
-      <c r="Y32" s="119"/>
+      <c r="Y32" s="120"/>
     </row>
     <row r="33" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B33" s="117" t="s">
+      <c r="B33" s="118" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="117"/>
-      <c r="D33" s="118">
+      <c r="C33" s="118"/>
+      <c r="D33" s="119">
         <v>250</v>
       </c>
-      <c r="E33" s="119"/>
-      <c r="G33" s="117" t="s">
+      <c r="E33" s="120"/>
+      <c r="G33" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="H33" s="117"/>
-      <c r="I33" s="118">
+      <c r="H33" s="118"/>
+      <c r="I33" s="119">
         <v>10000</v>
       </c>
-      <c r="J33" s="119"/>
-      <c r="L33" s="117" t="s">
+      <c r="J33" s="120"/>
+      <c r="L33" s="118" t="s">
         <v>145</v>
       </c>
-      <c r="M33" s="117"/>
-      <c r="N33" s="118">
+      <c r="M33" s="118"/>
+      <c r="N33" s="119">
         <v>5000</v>
       </c>
-      <c r="O33" s="119"/>
-      <c r="Q33" s="117" t="s">
+      <c r="O33" s="120"/>
+      <c r="Q33" s="118" t="s">
         <v>145</v>
       </c>
-      <c r="R33" s="117"/>
-      <c r="S33" s="118">
+      <c r="R33" s="118"/>
+      <c r="S33" s="119">
         <v>10000</v>
       </c>
-      <c r="T33" s="119"/>
-      <c r="V33" s="117" t="s">
+      <c r="T33" s="120"/>
+      <c r="V33" s="118" t="s">
         <v>145</v>
       </c>
-      <c r="W33" s="117"/>
-      <c r="X33" s="118">
+      <c r="W33" s="118"/>
+      <c r="X33" s="119">
         <v>10000</v>
       </c>
-      <c r="Y33" s="119"/>
+      <c r="Y33" s="120"/>
     </row>
     <row r="34" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="120" t="s">
+      <c r="B34" s="121" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="120"/>
-      <c r="D34" s="121" t="s">
+      <c r="C34" s="121"/>
+      <c r="D34" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="E34" s="122"/>
-      <c r="G34" s="120" t="s">
+      <c r="E34" s="123"/>
+      <c r="G34" s="121" t="s">
         <v>147</v>
       </c>
-      <c r="H34" s="120"/>
-      <c r="I34" s="121" t="s">
+      <c r="H34" s="121"/>
+      <c r="I34" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="J34" s="122"/>
-      <c r="L34" s="120" t="s">
+      <c r="J34" s="123"/>
+      <c r="L34" s="121" t="s">
         <v>147</v>
       </c>
-      <c r="M34" s="120"/>
-      <c r="N34" s="121" t="s">
+      <c r="M34" s="121"/>
+      <c r="N34" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="O34" s="122"/>
-      <c r="Q34" s="120" t="s">
+      <c r="O34" s="123"/>
+      <c r="Q34" s="121" t="s">
         <v>147</v>
       </c>
-      <c r="R34" s="120"/>
-      <c r="S34" s="121" t="s">
+      <c r="R34" s="121"/>
+      <c r="S34" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="T34" s="122"/>
-      <c r="V34" s="120" t="s">
+      <c r="T34" s="123"/>
+      <c r="V34" s="121" t="s">
         <v>147</v>
       </c>
-      <c r="W34" s="120"/>
-      <c r="X34" s="121" t="s">
+      <c r="W34" s="121"/>
+      <c r="X34" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="Y34" s="122"/>
+      <c r="Y34" s="123"/>
     </row>
     <row r="35" spans="2:25" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="36" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="124" t="s">
+      <c r="B36" s="126" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="124"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="124"/>
-      <c r="G36" s="124" t="s">
+      <c r="C36" s="126"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="126"/>
+      <c r="G36" s="126" t="s">
         <v>121</v>
       </c>
-      <c r="H36" s="124"/>
-      <c r="I36" s="124"/>
-      <c r="J36" s="124"/>
-      <c r="L36" s="124" t="s">
+      <c r="H36" s="126"/>
+      <c r="I36" s="126"/>
+      <c r="J36" s="126"/>
+      <c r="L36" s="126" t="s">
         <v>206</v>
       </c>
-      <c r="M36" s="124"/>
-      <c r="N36" s="124"/>
-      <c r="O36" s="124"/>
-      <c r="Q36" s="124" t="s">
+      <c r="M36" s="126"/>
+      <c r="N36" s="126"/>
+      <c r="O36" s="126"/>
+      <c r="Q36" s="126" t="s">
         <v>121</v>
       </c>
-      <c r="R36" s="124"/>
-      <c r="S36" s="124"/>
-      <c r="T36" s="124"/>
+      <c r="R36" s="126"/>
+      <c r="S36" s="126"/>
+      <c r="T36" s="126"/>
     </row>
     <row r="37" spans="2:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="117" t="s">
+      <c r="B37" s="118" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="117"/>
-      <c r="D37" s="123">
+      <c r="C37" s="118"/>
+      <c r="D37" s="124">
         <v>43217</v>
       </c>
-      <c r="E37" s="125"/>
-      <c r="G37" s="117" t="s">
+      <c r="E37" s="127"/>
+      <c r="G37" s="118" t="s">
         <v>122</v>
       </c>
-      <c r="H37" s="117"/>
-      <c r="I37" s="123">
+      <c r="H37" s="118"/>
+      <c r="I37" s="124">
         <v>43222</v>
       </c>
-      <c r="J37" s="125"/>
-      <c r="L37" s="117" t="s">
+      <c r="J37" s="127"/>
+      <c r="L37" s="118" t="s">
         <v>122</v>
       </c>
-      <c r="M37" s="117"/>
-      <c r="N37" s="123">
+      <c r="M37" s="118"/>
+      <c r="N37" s="124">
         <v>43214</v>
       </c>
-      <c r="O37" s="125"/>
-      <c r="Q37" s="117" t="s">
+      <c r="O37" s="127"/>
+      <c r="Q37" s="118" t="s">
         <v>122</v>
       </c>
-      <c r="R37" s="117"/>
-      <c r="S37" s="123">
+      <c r="R37" s="118"/>
+      <c r="S37" s="124">
         <v>43209</v>
       </c>
-      <c r="T37" s="125"/>
+      <c r="T37" s="127"/>
     </row>
     <row r="38" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B38" s="117" t="s">
+      <c r="B38" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="117"/>
-      <c r="D38" s="118" t="s">
+      <c r="C38" s="118"/>
+      <c r="D38" s="119" t="s">
         <v>231</v>
       </c>
-      <c r="E38" s="119"/>
-      <c r="G38" s="117" t="s">
+      <c r="E38" s="120"/>
+      <c r="G38" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="H38" s="117"/>
-      <c r="I38" s="118" t="s">
+      <c r="H38" s="118"/>
+      <c r="I38" s="119" t="s">
         <v>238</v>
       </c>
-      <c r="J38" s="119"/>
-      <c r="L38" s="117" t="s">
+      <c r="J38" s="120"/>
+      <c r="L38" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="M38" s="117"/>
-      <c r="N38" s="118" t="s">
+      <c r="M38" s="118"/>
+      <c r="N38" s="119" t="s">
         <v>204</v>
       </c>
-      <c r="O38" s="119"/>
-      <c r="Q38" s="117" t="s">
+      <c r="O38" s="120"/>
+      <c r="Q38" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="R38" s="117"/>
-      <c r="S38" s="118" t="s">
+      <c r="R38" s="118"/>
+      <c r="S38" s="119" t="s">
         <v>218</v>
       </c>
-      <c r="T38" s="119"/>
+      <c r="T38" s="120"/>
     </row>
     <row r="39" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B39" s="117" t="s">
+      <c r="B39" s="118" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="117"/>
-      <c r="D39" s="118" t="s">
+      <c r="C39" s="118"/>
+      <c r="D39" s="119" t="s">
         <v>232</v>
       </c>
-      <c r="E39" s="119"/>
-      <c r="G39" s="117" t="s">
+      <c r="E39" s="120"/>
+      <c r="G39" s="118" t="s">
         <v>127</v>
       </c>
-      <c r="H39" s="117"/>
-      <c r="I39" s="118" t="s">
+      <c r="H39" s="118"/>
+      <c r="I39" s="119" t="s">
         <v>204</v>
       </c>
-      <c r="J39" s="119"/>
-      <c r="L39" s="117" t="s">
+      <c r="J39" s="120"/>
+      <c r="L39" s="118" t="s">
         <v>127</v>
       </c>
-      <c r="M39" s="117"/>
-      <c r="N39" s="118" t="s">
+      <c r="M39" s="118"/>
+      <c r="N39" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="O39" s="119"/>
-      <c r="Q39" s="117" t="s">
+      <c r="O39" s="120"/>
+      <c r="Q39" s="118" t="s">
         <v>127</v>
       </c>
-      <c r="R39" s="117"/>
-      <c r="S39" s="118" t="s">
+      <c r="R39" s="118"/>
+      <c r="S39" s="119" t="s">
         <v>204</v>
       </c>
-      <c r="T39" s="119"/>
+      <c r="T39" s="120"/>
     </row>
     <row r="40" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B40" s="117" t="s">
+      <c r="B40" s="118" t="s">
         <v>179</v>
       </c>
-      <c r="C40" s="117"/>
-      <c r="D40" s="118">
+      <c r="C40" s="118"/>
+      <c r="D40" s="119">
         <f>D47*D45</f>
         <v>16992</v>
       </c>
-      <c r="E40" s="119"/>
-      <c r="G40" s="117" t="s">
+      <c r="E40" s="120"/>
+      <c r="G40" s="118" t="s">
         <v>179</v>
       </c>
-      <c r="H40" s="117"/>
-      <c r="I40" s="118">
+      <c r="H40" s="118"/>
+      <c r="I40" s="119">
         <f>I45*I47</f>
         <v>400000</v>
       </c>
-      <c r="J40" s="119"/>
-      <c r="L40" s="117" t="s">
+      <c r="J40" s="120"/>
+      <c r="L40" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="M40" s="117"/>
-      <c r="N40" s="118">
+      <c r="M40" s="118"/>
+      <c r="N40" s="119">
         <f>N45*N47</f>
         <v>2117500</v>
       </c>
-      <c r="O40" s="119"/>
-      <c r="Q40" s="117" t="s">
+      <c r="O40" s="120"/>
+      <c r="Q40" s="118" t="s">
         <v>179</v>
       </c>
-      <c r="R40" s="117"/>
-      <c r="S40" s="118">
+      <c r="R40" s="118"/>
+      <c r="S40" s="119">
         <f>S45*S47</f>
         <v>1045200</v>
       </c>
-      <c r="T40" s="119"/>
+      <c r="T40" s="120"/>
     </row>
     <row r="41" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B41" s="117" t="s">
+      <c r="B41" s="118" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="117"/>
-      <c r="D41" s="118" t="s">
+      <c r="C41" s="118"/>
+      <c r="D41" s="119" t="s">
         <v>233</v>
       </c>
-      <c r="E41" s="119"/>
-      <c r="G41" s="117" t="s">
+      <c r="E41" s="120"/>
+      <c r="G41" s="118" t="s">
         <v>131</v>
       </c>
-      <c r="H41" s="117"/>
-      <c r="I41" s="118" t="s">
+      <c r="H41" s="118"/>
+      <c r="I41" s="119" t="s">
         <v>219</v>
       </c>
-      <c r="J41" s="119"/>
-      <c r="L41" s="117" t="s">
+      <c r="J41" s="120"/>
+      <c r="L41" s="118" t="s">
         <v>131</v>
       </c>
-      <c r="M41" s="117"/>
-      <c r="N41" s="118" t="s">
+      <c r="M41" s="118"/>
+      <c r="N41" s="119" t="s">
         <v>208</v>
       </c>
-      <c r="O41" s="119"/>
-      <c r="Q41" s="117" t="s">
+      <c r="O41" s="120"/>
+      <c r="Q41" s="118" t="s">
         <v>131</v>
       </c>
-      <c r="R41" s="117"/>
-      <c r="S41" s="118" t="s">
+      <c r="R41" s="118"/>
+      <c r="S41" s="119" t="s">
         <v>219</v>
       </c>
-      <c r="T41" s="119"/>
+      <c r="T41" s="120"/>
     </row>
     <row r="42" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B42" s="117" t="s">
+      <c r="B42" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="117"/>
-      <c r="D42" s="123">
+      <c r="C42" s="118"/>
+      <c r="D42" s="124">
         <f>D37+28</f>
         <v>43245</v>
       </c>
-      <c r="E42" s="119"/>
-      <c r="G42" s="117" t="s">
+      <c r="E42" s="120"/>
+      <c r="G42" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="H42" s="117"/>
-      <c r="I42" s="123">
+      <c r="H42" s="118"/>
+      <c r="I42" s="124">
         <v>43222</v>
       </c>
-      <c r="J42" s="119"/>
-      <c r="L42" s="117" t="s">
+      <c r="J42" s="120"/>
+      <c r="L42" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="M42" s="117"/>
-      <c r="N42" s="123">
+      <c r="M42" s="118"/>
+      <c r="N42" s="124">
         <v>43266</v>
       </c>
-      <c r="O42" s="119"/>
-      <c r="Q42" s="117" t="s">
+      <c r="O42" s="120"/>
+      <c r="Q42" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="R42" s="117"/>
-      <c r="S42" s="123">
+      <c r="R42" s="118"/>
+      <c r="S42" s="124">
         <v>43266</v>
       </c>
-      <c r="T42" s="119"/>
+      <c r="T42" s="120"/>
     </row>
     <row r="43" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B43" s="117" t="s">
+      <c r="B43" s="118" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="117"/>
-      <c r="D43" s="118">
+      <c r="C43" s="118"/>
+      <c r="D43" s="119">
         <v>3654</v>
       </c>
-      <c r="E43" s="119"/>
-      <c r="G43" s="117" t="s">
+      <c r="E43" s="120"/>
+      <c r="G43" s="118" t="s">
         <v>136</v>
       </c>
-      <c r="H43" s="117"/>
-      <c r="I43" s="118">
+      <c r="H43" s="118"/>
+      <c r="I43" s="119">
         <v>14545</v>
       </c>
-      <c r="J43" s="119"/>
-      <c r="L43" s="117" t="s">
+      <c r="J43" s="120"/>
+      <c r="L43" s="118" t="s">
         <v>136</v>
       </c>
-      <c r="M43" s="138"/>
-      <c r="N43" s="118">
+      <c r="M43" s="125"/>
+      <c r="N43" s="119">
         <v>14535</v>
       </c>
-      <c r="O43" s="119"/>
-      <c r="Q43" s="117" t="s">
+      <c r="O43" s="120"/>
+      <c r="Q43" s="118" t="s">
         <v>136</v>
       </c>
-      <c r="R43" s="117"/>
-      <c r="S43" s="118">
+      <c r="R43" s="118"/>
+      <c r="S43" s="119">
         <v>15250</v>
       </c>
-      <c r="T43" s="119"/>
+      <c r="T43" s="120"/>
     </row>
     <row r="44" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B44" s="117" t="s">
+      <c r="B44" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="C44" s="117"/>
-      <c r="D44" s="118">
+      <c r="C44" s="118"/>
+      <c r="D44" s="119">
         <v>3654</v>
       </c>
-      <c r="E44" s="119"/>
+      <c r="E44" s="120"/>
       <c r="F44" s="100">
         <f>D44*1.55/100</f>
         <v>56.637</v>
       </c>
-      <c r="G44" s="117" t="s">
+      <c r="G44" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="H44" s="117"/>
-      <c r="I44" s="118">
+      <c r="H44" s="118"/>
+      <c r="I44" s="119">
         <v>14000</v>
       </c>
-      <c r="J44" s="119"/>
-      <c r="L44" s="117" t="s">
+      <c r="J44" s="120"/>
+      <c r="L44" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="M44" s="117"/>
-      <c r="N44" s="118">
+      <c r="M44" s="118"/>
+      <c r="N44" s="119">
         <v>14500</v>
       </c>
-      <c r="O44" s="119"/>
-      <c r="Q44" s="117" t="s">
+      <c r="O44" s="120"/>
+      <c r="Q44" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="R44" s="117"/>
-      <c r="S44" s="118">
+      <c r="R44" s="118"/>
+      <c r="S44" s="119">
         <v>14500</v>
       </c>
-      <c r="T44" s="119"/>
+      <c r="T44" s="120"/>
     </row>
     <row r="45" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B45" s="117" t="s">
+      <c r="B45" s="118" t="s">
         <v>236</v>
       </c>
-      <c r="C45" s="117"/>
-      <c r="D45" s="118">
+      <c r="C45" s="118"/>
+      <c r="D45" s="119">
         <v>56.64</v>
       </c>
-      <c r="E45" s="119"/>
-      <c r="G45" s="117" t="s">
+      <c r="E45" s="120"/>
+      <c r="G45" s="118" t="s">
         <v>198</v>
       </c>
-      <c r="H45" s="117"/>
-      <c r="I45" s="118">
+      <c r="H45" s="118"/>
+      <c r="I45" s="119">
         <v>200</v>
       </c>
-      <c r="J45" s="119"/>
-      <c r="L45" s="117" t="s">
+      <c r="J45" s="120"/>
+      <c r="L45" s="118" t="s">
         <v>140</v>
       </c>
-      <c r="M45" s="117"/>
-      <c r="N45" s="118">
+      <c r="M45" s="118"/>
+      <c r="N45" s="119">
         <v>423.5</v>
       </c>
-      <c r="O45" s="119"/>
-      <c r="Q45" s="117" t="s">
+      <c r="O45" s="120"/>
+      <c r="Q45" s="118" t="s">
         <v>198</v>
       </c>
-      <c r="R45" s="117"/>
-      <c r="S45" s="118">
+      <c r="R45" s="118"/>
+      <c r="S45" s="119">
         <v>209.04</v>
       </c>
-      <c r="T45" s="119"/>
+      <c r="T45" s="120"/>
     </row>
     <row r="46" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B46" s="117" t="s">
+      <c r="B46" s="118" t="s">
         <v>199</v>
       </c>
-      <c r="C46" s="117"/>
-      <c r="D46" s="118" t="s">
+      <c r="C46" s="118"/>
+      <c r="D46" s="119" t="s">
         <v>237</v>
       </c>
-      <c r="E46" s="119"/>
-      <c r="G46" s="117" t="s">
+      <c r="E46" s="120"/>
+      <c r="G46" s="118" t="s">
         <v>142</v>
       </c>
-      <c r="H46" s="117"/>
-      <c r="I46" s="118" t="s">
+      <c r="H46" s="118"/>
+      <c r="I46" s="119" t="s">
         <v>203</v>
       </c>
-      <c r="J46" s="119"/>
-      <c r="L46" s="117" t="s">
+      <c r="J46" s="120"/>
+      <c r="L46" s="118" t="s">
         <v>142</v>
       </c>
-      <c r="M46" s="117"/>
-      <c r="N46" s="118" t="s">
+      <c r="M46" s="118"/>
+      <c r="N46" s="119" t="s">
         <v>210</v>
       </c>
-      <c r="O46" s="119"/>
-      <c r="Q46" s="117" t="s">
+      <c r="O46" s="120"/>
+      <c r="Q46" s="118" t="s">
         <v>142</v>
       </c>
-      <c r="R46" s="117"/>
-      <c r="S46" s="118" t="s">
+      <c r="R46" s="118"/>
+      <c r="S46" s="119" t="s">
         <v>222</v>
       </c>
-      <c r="T46" s="119"/>
+      <c r="T46" s="120"/>
     </row>
     <row r="47" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B47" s="117" t="s">
+      <c r="B47" s="118" t="s">
         <v>235</v>
       </c>
-      <c r="C47" s="117"/>
-      <c r="D47" s="118">
+      <c r="C47" s="118"/>
+      <c r="D47" s="119">
         <v>300</v>
       </c>
-      <c r="E47" s="119"/>
-      <c r="G47" s="117" t="s">
+      <c r="E47" s="120"/>
+      <c r="G47" s="118" t="s">
         <v>145</v>
       </c>
-      <c r="H47" s="117"/>
-      <c r="I47" s="118">
+      <c r="H47" s="118"/>
+      <c r="I47" s="119">
         <v>2000</v>
       </c>
-      <c r="J47" s="119"/>
-      <c r="L47" s="117" t="s">
+      <c r="J47" s="120"/>
+      <c r="L47" s="118" t="s">
         <v>145</v>
       </c>
-      <c r="M47" s="117"/>
-      <c r="N47" s="118">
+      <c r="M47" s="118"/>
+      <c r="N47" s="119">
         <v>5000</v>
       </c>
-      <c r="O47" s="119"/>
-      <c r="Q47" s="117" t="s">
+      <c r="O47" s="120"/>
+      <c r="Q47" s="118" t="s">
         <v>145</v>
       </c>
-      <c r="R47" s="117"/>
-      <c r="S47" s="118">
+      <c r="R47" s="118"/>
+      <c r="S47" s="119">
         <v>5000</v>
       </c>
-      <c r="T47" s="119"/>
+      <c r="T47" s="120"/>
     </row>
     <row r="48" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="120" t="s">
+      <c r="B48" s="121" t="s">
         <v>147</v>
       </c>
-      <c r="C48" s="120"/>
-      <c r="D48" s="121" t="s">
+      <c r="C48" s="121"/>
+      <c r="D48" s="122" t="s">
         <v>234</v>
       </c>
-      <c r="E48" s="122"/>
-      <c r="G48" s="120" t="s">
+      <c r="E48" s="123"/>
+      <c r="G48" s="121" t="s">
         <v>147</v>
       </c>
-      <c r="H48" s="120"/>
-      <c r="I48" s="121" t="s">
+      <c r="H48" s="121"/>
+      <c r="I48" s="122" t="s">
         <v>207</v>
       </c>
-      <c r="J48" s="122"/>
-      <c r="L48" s="120" t="s">
+      <c r="J48" s="123"/>
+      <c r="L48" s="121" t="s">
         <v>147</v>
       </c>
-      <c r="M48" s="120"/>
-      <c r="N48" s="121" t="s">
+      <c r="M48" s="121"/>
+      <c r="N48" s="122" t="s">
         <v>205</v>
       </c>
-      <c r="O48" s="122"/>
-      <c r="Q48" s="120" t="s">
+      <c r="O48" s="123"/>
+      <c r="Q48" s="121" t="s">
         <v>147</v>
       </c>
-      <c r="R48" s="120"/>
-      <c r="S48" s="121" t="s">
+      <c r="R48" s="121"/>
+      <c r="S48" s="122" t="s">
         <v>207</v>
       </c>
-      <c r="T48" s="122"/>
+      <c r="T48" s="123"/>
     </row>
     <row r="49" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="326">
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:H5"/>
@@ -4653,160 +4871,154 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="S13:T13"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4819,8 +5031,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -4848,10 +5060,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="139"/>
+      <c r="C1" s="140"/>
     </row>
     <row r="2" spans="1:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
@@ -4983,11 +5195,11 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" ref="E8:E20" ca="1" si="0">TODAY()</f>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8" ca="1" si="1">E8+H8</f>
-        <v>43313</v>
+        <v>43314</v>
       </c>
       <c r="G8" s="10">
         <v>11500</v>
@@ -5007,7 +5219,7 @@
       </c>
       <c r="L8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-5.3999716011609848</v>
+        <v>-4.2299417311546677</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="13">
@@ -5016,11 +5228,11 @@
       </c>
       <c r="O8" s="13">
         <f>IF(L8&lt;=0,ABS(L8)+N8,L8-N8)</f>
-        <v>5.3999716011609848</v>
+        <v>4.2299417311546677</v>
       </c>
       <c r="P8" s="11">
         <f>RTD("wdf.rtq",,D8,"LastPrice")</f>
-        <v>14590</v>
+        <v>14720</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>85</v>
@@ -5034,15 +5246,15 @@
       </c>
       <c r="T8" s="14">
         <f t="shared" ref="T8" si="4">O8/P8</f>
-        <v>3.7011457170397431E-4</v>
+        <v>2.8736017195344211E-4</v>
       </c>
       <c r="U8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>1.0063355020406561E-2</v>
+        <v>8.0085804277985062E-3</v>
       </c>
       <c r="V8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-1.9592433243866481</v>
+        <v>-1.6201687033904264</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5058,11 +5270,11 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ref="F9" ca="1" si="5">E9+H9</f>
-        <v>43313</v>
+        <v>43314</v>
       </c>
       <c r="G9" s="10">
         <v>11500</v>
@@ -5082,7 +5294,7 @@
       </c>
       <c r="L9" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
-        <v>-5.3999716011609848</v>
+        <v>-4.2299417311546677</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="13">
@@ -5091,11 +5303,11 @@
       </c>
       <c r="O9" s="13">
         <f>IF(L9&lt;=0,ABS(L9)+N9,L9-N9)</f>
-        <v>5.3999716011609848</v>
+        <v>4.2299417311546677</v>
       </c>
       <c r="P9" s="11">
         <f>RTD("wdf.rtq",,D9,"LastPrice")</f>
-        <v>14590</v>
+        <v>14720</v>
       </c>
       <c r="Q9" s="10" t="s">
         <v>85</v>
@@ -5109,15 +5321,15 @@
       </c>
       <c r="T9" s="14">
         <f t="shared" ref="T9" si="8">O9/P9</f>
-        <v>3.7011457170397431E-4</v>
+        <v>2.8736017195344211E-4</v>
       </c>
       <c r="U9" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
-        <v>1.0063355020406561E-2</v>
+        <v>8.0085804277985062E-3</v>
       </c>
       <c r="V9" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
-        <v>-1.9592433243866481</v>
+        <v>-1.6201687033904264</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.15">
@@ -5139,11 +5351,11 @@
       </c>
       <c r="E11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" ref="F11" ca="1" si="9">E11+H11</f>
-        <v>43223</v>
+        <v>43224</v>
       </c>
       <c r="G11" s="11">
         <v>3700</v>
@@ -5202,7 +5414,7 @@
       <c r="W11" s="115">
         <v>37.799999999999997</v>
       </c>
-      <c r="X11" s="142">
+      <c r="X11" s="116">
         <f>G11-W11</f>
         <v>3662.2</v>
       </c>
@@ -5225,15 +5437,15 @@
       </c>
       <c r="E13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" ref="F13" ca="1" si="13">E13+H13</f>
-        <v>43254</v>
+        <v>43255</v>
       </c>
       <c r="G13" s="11">
         <f>P13</f>
-        <v>51380</v>
+        <v>51230</v>
       </c>
       <c r="H13" s="10">
         <v>32</v>
@@ -5250,7 +5462,7 @@
       </c>
       <c r="L13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>-863.28435456805164</v>
+        <v>-860.76406159052567</v>
       </c>
       <c r="M13" s="15"/>
       <c r="N13" s="13">
@@ -5259,11 +5471,11 @@
       </c>
       <c r="O13" s="13">
         <f>IF(L13&lt;=0,ABS(L13)+N13,L13-N13)</f>
-        <v>863.28435456805164</v>
+        <v>860.76406159052567</v>
       </c>
       <c r="P13" s="11">
         <f>RTD("wdf.rtq",,D13,"LastPrice")</f>
-        <v>51380</v>
+        <v>51230</v>
       </c>
       <c r="Q13" s="10" t="s">
         <v>85</v>
@@ -5277,15 +5489,15 @@
       </c>
       <c r="T13" s="14">
         <f>O13/P13</f>
-        <v>1.6801953183496528E-2</v>
+        <v>1.6801953183496501E-2</v>
       </c>
       <c r="U13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>0.49072307920141611</v>
+        <v>0.49072307956521399</v>
       </c>
       <c r="V13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>-60.57234901366246</v>
+        <v>-60.395512650253295</v>
       </c>
       <c r="X13" s="115">
         <f>P13-G13</f>
@@ -5293,7 +5505,7 @@
       </c>
       <c r="Y13" s="6">
         <f>500*U13</f>
-        <v>245.36153960070806</v>
+        <v>245.361539782607</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5333,15 +5545,15 @@
       </c>
       <c r="E15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" ref="F15" ca="1" si="16">E15+H15</f>
-        <v>43252</v>
+        <v>43253</v>
       </c>
       <c r="G15" s="11">
         <f>P15</f>
-        <v>104510</v>
+        <v>104240</v>
       </c>
       <c r="H15" s="10">
         <v>30</v>
@@ -5358,7 +5570,7 @@
       </c>
       <c r="L15" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>-1700.4069189953298</v>
+        <v>-1696.0139435085002</v>
       </c>
       <c r="M15" s="15"/>
       <c r="N15" s="13">
@@ -5367,11 +5579,11 @@
       </c>
       <c r="O15" s="13">
         <f>IF(L15&lt;=0,ABS(L15)+N15,L15-N15)</f>
-        <v>1700.4069189953298</v>
+        <v>1696.0139435085002</v>
       </c>
       <c r="P15" s="11">
         <f>RTD("wdf.rtq",,D15,"LastPrice")</f>
-        <v>104510</v>
+        <v>104240</v>
       </c>
       <c r="Q15" s="10" t="s">
         <v>85</v>
@@ -5385,15 +5597,15 @@
       </c>
       <c r="T15" s="14">
         <f>O15/P15</f>
-        <v>1.6270279580856663E-2</v>
+        <v>1.6270279580856681E-2</v>
       </c>
       <c r="U15" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>0.49104361714853439</v>
+        <v>0.49104361787613016</v>
       </c>
       <c r="V15" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>-119.3101649763048</v>
+        <v>-119.00192897455418</v>
       </c>
       <c r="X15" s="115">
         <f>P15-G15</f>
@@ -5401,7 +5613,7 @@
       </c>
       <c r="Y15" s="6">
         <f>500*U15</f>
-        <v>245.5218085742672</v>
+        <v>245.52180893806508</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5417,15 +5629,15 @@
       </c>
       <c r="E16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" ref="F16" ca="1" si="19">E16+H16</f>
-        <v>43252</v>
+        <v>43253</v>
       </c>
       <c r="G16" s="11">
         <f>P16</f>
-        <v>104510</v>
+        <v>104240</v>
       </c>
       <c r="H16" s="10">
         <v>30</v>
@@ -5442,7 +5654,7 @@
       </c>
       <c r="L16" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
-        <v>-1700.4069189953298</v>
+        <v>-1696.0139435085002</v>
       </c>
       <c r="M16" s="15"/>
       <c r="N16" s="13">
@@ -5451,11 +5663,11 @@
       </c>
       <c r="O16" s="13">
         <f>IF(L16&lt;=0,ABS(L16)+N16,L16-N16)</f>
-        <v>1700.4069189953298</v>
+        <v>1696.0139435085002</v>
       </c>
       <c r="P16" s="11">
         <f>RTD("wdf.rtq",,D16,"LastPrice")</f>
-        <v>104510</v>
+        <v>104240</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>85</v>
@@ -5469,15 +5681,15 @@
       </c>
       <c r="T16" s="14">
         <f>O16/P16</f>
-        <v>1.6270279580856663E-2</v>
+        <v>1.6270279580856681E-2</v>
       </c>
       <c r="U16" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
-        <v>0.49104361714853439</v>
+        <v>0.49104361787613016</v>
       </c>
       <c r="V16" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
-        <v>-119.3101649763048</v>
+        <v>-119.00192897455418</v>
       </c>
       <c r="X16" s="115">
         <f>P16-G16</f>
@@ -5485,7 +5697,7 @@
       </c>
       <c r="Y16" s="6">
         <f>500*U16</f>
-        <v>245.5218085742672</v>
+        <v>245.52180893806508</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5525,15 +5737,15 @@
       </c>
       <c r="E18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" ref="F18" ca="1" si="22">E18+H18</f>
-        <v>43252</v>
+        <v>43253</v>
       </c>
       <c r="G18" s="11">
         <f>P18</f>
-        <v>3626</v>
+        <v>3643</v>
       </c>
       <c r="H18" s="10">
         <v>30</v>
@@ -5550,7 +5762,7 @@
       </c>
       <c r="L18" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>-72.448709457548148</v>
+        <v>-72.788375221689648</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="13">
@@ -5559,11 +5771,11 @@
       </c>
       <c r="O18" s="13">
         <f>IF(L18&lt;=0,ABS(L18)+N18,L18-N18)</f>
-        <v>72.448709457548148</v>
+        <v>72.788375221689648</v>
       </c>
       <c r="P18" s="11">
         <f>RTD("wdf.rtq",,D18,"LastPrice")</f>
-        <v>3626</v>
+        <v>3643</v>
       </c>
       <c r="Q18" s="10" t="s">
         <v>85</v>
@@ -5577,7 +5789,7 @@
       </c>
       <c r="T18" s="14">
         <f>O18/P18</f>
-        <v>1.9980339067167167E-2</v>
+        <v>1.9980339067167074E-2</v>
       </c>
       <c r="U18" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
@@ -5585,7 +5797,7 @@
       </c>
       <c r="V18" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>-4.1390565189179824</v>
+        <v>-4.1584619135186358</v>
       </c>
       <c r="X18" s="115">
         <f>P18-G18</f>
@@ -5633,48 +5845,48 @@
       </c>
       <c r="E20" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" ref="F20" ca="1" si="25">E20+H20</f>
         <v>43251</v>
       </c>
       <c r="G20" s="11">
-        <v>53300</v>
+        <v>48000</v>
       </c>
       <c r="H20" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I20" s="12">
         <f>(H20)/365</f>
-        <v>7.9452054794520555E-2</v>
+        <v>7.6712328767123292E-2</v>
       </c>
       <c r="J20" s="12">
         <v>0</v>
       </c>
       <c r="K20" s="9">
-        <v>0.14199999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>198.21203281188355</v>
+        <v>40.620185749357461</v>
       </c>
       <c r="M20" s="15">
         <v>30</v>
       </c>
       <c r="N20" s="13">
         <f t="shared" ref="N20" si="26">M20/10000*I20*P20</f>
-        <v>12.239589041095892</v>
+        <v>11.771506849315069</v>
       </c>
       <c r="O20" s="13">
         <f>IF(L20&lt;=0,ABS(L20)+N20,L20-N20)</f>
-        <v>185.97244377078766</v>
+        <v>28.848678900042394</v>
       </c>
       <c r="P20" s="11">
-        <v>51350</v>
+        <v>51150</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="R20" s="10">
         <f t="shared" ref="R20" si="27">IF(S20="中金买入",1,-1)</f>
@@ -5685,23 +5897,27 @@
       </c>
       <c r="T20" s="14">
         <f>O20/P20</f>
-        <v>3.6216639487982017E-3</v>
+        <v>5.6400154252282295E-4</v>
       </c>
       <c r="U20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>0.18081550870192586</v>
+        <v>-4.8524375529268582E-2</v>
       </c>
       <c r="V20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>38.007166270027028</v>
+        <v>14.251511966256544</v>
+      </c>
+      <c r="W20" s="6">
+        <f>40*U20</f>
+        <v>-1.9409750211707433</v>
       </c>
       <c r="X20" s="115">
         <f>P20-G20</f>
-        <v>-1950</v>
+        <v>3150</v>
       </c>
       <c r="Y20" s="6">
         <f>500*U20</f>
-        <v>90.407754350962932</v>
+        <v>-24.262187764634291</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5757,29 +5973,90 @@
     </row>
     <row r="23" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="34"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
+      <c r="B23" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" ref="E23" ca="1" si="28">TODAY()</f>
+        <v>43223</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" ref="F23" ca="1" si="29">E23+H23</f>
+        <v>43251</v>
+      </c>
+      <c r="G23" s="11">
+        <v>3660</v>
+      </c>
+      <c r="H23" s="10">
+        <v>28</v>
+      </c>
+      <c r="I23" s="12">
+        <f>(H23)/365</f>
+        <v>7.6712328767123292E-2</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="L23" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
+        <v>-119.08543433615614</v>
+      </c>
+      <c r="M23" s="15">
+        <v>70</v>
+      </c>
+      <c r="N23" s="13">
+        <f t="shared" ref="N23" si="30">M23/10000*I23*P23</f>
+        <v>1.9653698630136986</v>
+      </c>
+      <c r="O23" s="13">
+        <f>IF(L23&lt;=0,ABS(L23)+N23,L23-N23)</f>
+        <v>121.05080419916985</v>
+      </c>
+      <c r="P23" s="11">
+        <v>3660</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R23" s="10">
+        <f t="shared" ref="R23" si="31">IF(S23="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="S23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T23" s="14">
+        <f>O23/P23</f>
+        <v>3.3073990218352417E-2</v>
+      </c>
+      <c r="U23" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
+        <v>-0.51550196685639094</v>
+      </c>
+      <c r="V23" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
+        <v>-4.0345478301470621</v>
+      </c>
+      <c r="W23" s="6">
+        <f>40*U23</f>
+        <v>-20.620078674255637</v>
+      </c>
+      <c r="X23" s="115">
+        <f>P23-G23</f>
+        <v>0</v>
+      </c>
       <c r="Y23" s="6">
-        <v>37.799999999999997</v>
+        <f>500*U23</f>
+        <v>-257.75098342819547</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5807,7 +6084,7 @@
       <c r="V24" s="13"/>
       <c r="Y24" s="6">
         <f>Y22-Y23</f>
-        <v>3662.2</v>
+        <v>3957.7509834281955</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6138,7 +6415,7 @@
   <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -6168,10 +6445,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="139"/>
+      <c r="C1" s="140"/>
     </row>
     <row r="2" spans="1:22" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="29" t="s">
@@ -6298,11 +6575,11 @@
       </c>
       <c r="E8" s="46">
         <f ca="1">TODAY()</f>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="F8" s="46">
         <f ca="1">E8+H8</f>
-        <v>43252</v>
+        <v>43253</v>
       </c>
       <c r="G8" s="44">
         <v>100</v>
@@ -6366,11 +6643,11 @@
       </c>
       <c r="E9" s="54">
         <f ca="1">E8</f>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="F9" s="54">
         <f ca="1">F8</f>
-        <v>43252</v>
+        <v>43253</v>
       </c>
       <c r="G9" s="52">
         <v>100</v>
@@ -6437,11 +6714,11 @@
       </c>
       <c r="E10" s="62">
         <f ca="1">E9</f>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="F10" s="62">
         <f ca="1">F9</f>
-        <v>43252</v>
+        <v>43253</v>
       </c>
       <c r="G10" s="60" t="str">
         <f>G8 &amp; "|" &amp; G9</f>
@@ -6505,11 +6782,11 @@
       </c>
       <c r="E11" s="46">
         <f ca="1">TODAY()</f>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="F11" s="46">
         <f ca="1">E11+H11</f>
-        <v>43237</v>
+        <v>43238</v>
       </c>
       <c r="G11" s="113">
         <f>P11-20</f>
@@ -6575,11 +6852,11 @@
       </c>
       <c r="E12" s="54">
         <f t="shared" ref="E12:F12" ca="1" si="2">E11</f>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="F12" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>43237</v>
+        <v>43238</v>
       </c>
       <c r="G12" s="52">
         <f>G11+50</f>
@@ -6648,11 +6925,11 @@
       </c>
       <c r="E13" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="F13" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43237</v>
+        <v>43238</v>
       </c>
       <c r="G13" s="60" t="str">
         <f>G11 &amp; "|" &amp; G12</f>
@@ -6718,11 +6995,11 @@
       </c>
       <c r="E14" s="46">
         <f ca="1">TODAY()</f>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="F14" s="46">
         <f ca="1">E14+H14</f>
-        <v>43313</v>
+        <v>43314</v>
       </c>
       <c r="G14" s="113">
         <v>3480</v>
@@ -6743,17 +7020,17 @@
       </c>
       <c r="L14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-358.95124621555533</v>
+        <v>-322.10419747403057</v>
       </c>
       <c r="M14" s="49"/>
       <c r="N14" s="43"/>
       <c r="O14" s="43">
         <f t="shared" ref="O14:O16" si="4">IF(L14&lt;=0,ABS(L14)+N14,L14-N14)</f>
-        <v>358.95124621555533</v>
+        <v>322.10419747403057</v>
       </c>
       <c r="P14" s="110">
         <f>RTD("wdf.rtq",,D14,"LastPrice")</f>
-        <v>3727</v>
+        <v>3673</v>
       </c>
       <c r="Q14" s="44" t="s">
         <v>39</v>
@@ -6768,11 +7045,11 @@
       <c r="T14" s="50"/>
       <c r="U14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-0.69937191367444029</v>
+        <v>-0.66497974403318949</v>
       </c>
       <c r="V14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-6.4094155866339406</v>
+        <v>-6.6217869814586265</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -6789,11 +7066,11 @@
       </c>
       <c r="E15" s="54">
         <f t="shared" ref="E15:F15" ca="1" si="5">E14</f>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="F15" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>43313</v>
+        <v>43314</v>
       </c>
       <c r="G15" s="52">
         <v>3280</v>
@@ -6815,17 +7092,17 @@
       </c>
       <c r="L15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>47.551512149141786</v>
+        <v>57.001003600006925</v>
       </c>
       <c r="M15" s="57"/>
       <c r="N15" s="51"/>
       <c r="O15" s="51">
         <f t="shared" si="4"/>
-        <v>47.551512149141786</v>
+        <v>57.001003600006925</v>
       </c>
       <c r="P15" s="94">
         <f>P14</f>
-        <v>3727</v>
+        <v>3673</v>
       </c>
       <c r="Q15" s="52" t="s">
         <v>85</v>
@@ -6840,11 +7117,11 @@
       <c r="T15" s="58"/>
       <c r="U15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>-0.16181537517923061</v>
+        <v>-0.18866605765879285</v>
       </c>
       <c r="V15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>4.5516770738681203</v>
+        <v>4.9441431488494914</v>
       </c>
     </row>
     <row r="16" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -6861,11 +7138,11 @@
       </c>
       <c r="E16" s="62">
         <f t="shared" ref="E16:F16" ca="1" si="6">E15</f>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="F16" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>43313</v>
+        <v>43314</v>
       </c>
       <c r="G16" s="60" t="str">
         <f>G14 &amp; "|" &amp; G15</f>
@@ -6883,7 +7160,7 @@
       <c r="K16" s="60"/>
       <c r="L16" s="59">
         <f>L15+L14</f>
-        <v>-311.39973406641354</v>
+        <v>-265.10319387402365</v>
       </c>
       <c r="M16" s="60">
         <v>0</v>
@@ -6894,11 +7171,11 @@
       </c>
       <c r="O16" s="59">
         <f t="shared" si="4"/>
-        <v>311.39973406641354</v>
+        <v>265.10319387402365</v>
       </c>
       <c r="P16" s="111">
         <f>P15</f>
-        <v>3727</v>
+        <v>3673</v>
       </c>
       <c r="Q16" s="60"/>
       <c r="R16" s="60"/>
@@ -6907,15 +7184,15 @@
       </c>
       <c r="T16" s="64">
         <f>O16/P16</f>
-        <v>8.3552383704430785E-2</v>
+        <v>7.2176203069431982E-2</v>
       </c>
       <c r="U16" s="64">
         <f>U15+U14</f>
-        <v>-0.86118728885367091</v>
+        <v>-0.85364580169198234</v>
       </c>
       <c r="V16" s="64">
         <f>V15+V14</f>
-        <v>-1.8577385127658204</v>
+        <v>-1.6776438326091352</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -6932,15 +7209,15 @@
       </c>
       <c r="E18" s="46">
         <f ca="1">TODAY()</f>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="F18" s="46">
         <f ca="1">E18+H18</f>
-        <v>43313</v>
+        <v>43314</v>
       </c>
       <c r="G18" s="113">
         <f>P18</f>
-        <v>51520</v>
+        <v>51410</v>
       </c>
       <c r="H18" s="44">
         <v>91</v>
@@ -6958,17 +7235,17 @@
       </c>
       <c r="L18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>-1939.4805154989626</v>
+        <v>-1935.3395439014312</v>
       </c>
       <c r="M18" s="49"/>
       <c r="N18" s="43"/>
       <c r="O18" s="43">
         <f t="shared" ref="O18:O20" si="7">IF(L18&lt;=0,ABS(L18)+N18,L18-N18)</f>
-        <v>1939.4805154989626</v>
+        <v>1935.3395439014312</v>
       </c>
       <c r="P18" s="110">
         <f>RTD("wdf.rtq",,D18,"LastPrice")</f>
-        <v>51520</v>
+        <v>51410</v>
       </c>
       <c r="Q18" s="44" t="s">
         <v>39</v>
@@ -6983,11 +7260,11 @@
       <c r="T18" s="50"/>
       <c r="U18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>-0.51633565308293328</v>
+        <v>-0.51633565326483222</v>
       </c>
       <c r="V18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>-102.0012783410657</v>
+        <v>-101.78349610858095</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -7003,11 +7280,11 @@
       </c>
       <c r="E19" s="54">
         <f t="shared" ref="E19:F19" ca="1" si="8">E18</f>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="F19" s="54">
         <f t="shared" ca="1" si="8"/>
-        <v>43313</v>
+        <v>43314</v>
       </c>
       <c r="G19" s="52">
         <v>52000</v>
@@ -7029,17 +7306,17 @@
       </c>
       <c r="L19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>1668.0155373070666</v>
+        <v>1616.1589129975837</v>
       </c>
       <c r="M19" s="57"/>
       <c r="N19" s="51"/>
       <c r="O19" s="51">
         <f t="shared" si="7"/>
-        <v>1668.0155373070666</v>
+        <v>1616.1589129975837</v>
       </c>
       <c r="P19" s="94">
         <f>P18</f>
-        <v>51520</v>
+        <v>51410</v>
       </c>
       <c r="Q19" s="52" t="s">
         <v>39</v>
@@ -7054,11 +7331,11 @@
       <c r="T19" s="58"/>
       <c r="U19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>0.47600586440239567</v>
+        <v>0.46684091030329</v>
       </c>
       <c r="V19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>101.96467873676193</v>
+        <v>101.59147261889848</v>
       </c>
     </row>
     <row r="20" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -7074,15 +7351,15 @@
       </c>
       <c r="E20" s="62">
         <f t="shared" ref="E20:F20" ca="1" si="9">E19</f>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="F20" s="62">
         <f t="shared" ca="1" si="9"/>
-        <v>43313</v>
+        <v>43314</v>
       </c>
       <c r="G20" s="60" t="str">
         <f>G18 &amp; "|" &amp; G19</f>
-        <v>51520|52000</v>
+        <v>51410|52000</v>
       </c>
       <c r="H20" s="60">
         <f>H19</f>
@@ -7096,7 +7373,7 @@
       <c r="K20" s="60"/>
       <c r="L20" s="59">
         <f>L19+L18</f>
-        <v>-271.46497819189608</v>
+        <v>-319.18063090384749</v>
       </c>
       <c r="M20" s="60">
         <v>0</v>
@@ -7107,11 +7384,11 @@
       </c>
       <c r="O20" s="59">
         <f t="shared" si="7"/>
-        <v>271.46497819189608</v>
+        <v>319.18063090384749</v>
       </c>
       <c r="P20" s="111">
         <f>P19</f>
-        <v>51520</v>
+        <v>51410</v>
       </c>
       <c r="Q20" s="60"/>
       <c r="R20" s="60"/>
@@ -7120,15 +7397,15 @@
       </c>
       <c r="T20" s="64">
         <f>O20/P20</f>
-        <v>5.269118365525933E-3</v>
+        <v>6.2085320152469843E-3</v>
       </c>
       <c r="U20" s="64">
         <f>U19+U18</f>
-        <v>-4.0329788680537604E-2</v>
+        <v>-4.9494742961542215E-2</v>
       </c>
       <c r="V20" s="64">
         <f>V19+V18</f>
-        <v>-3.6599604303773958E-2</v>
+        <v>-0.19202348968246952</v>
       </c>
     </row>
     <row r="21" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -7144,11 +7421,11 @@
       </c>
       <c r="E21" s="46">
         <f ca="1">TODAY()</f>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="F21" s="46">
         <f ca="1">E21+H21</f>
-        <v>43252</v>
+        <v>43253</v>
       </c>
       <c r="G21" s="113">
         <v>460</v>
@@ -7214,11 +7491,11 @@
       </c>
       <c r="E22" s="54">
         <f t="shared" ref="E22:F22" ca="1" si="11">E21</f>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="F22" s="54">
         <f t="shared" ca="1" si="11"/>
-        <v>43252</v>
+        <v>43253</v>
       </c>
       <c r="G22" s="52">
         <v>500</v>
@@ -7286,11 +7563,11 @@
       </c>
       <c r="E23" s="62">
         <f t="shared" ref="E23:F23" ca="1" si="12">E22</f>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="F23" s="62">
         <f t="shared" ca="1" si="12"/>
-        <v>43252</v>
+        <v>43253</v>
       </c>
       <c r="G23" s="60" t="str">
         <f>G21 &amp; "|" &amp; G22</f>
@@ -7409,11 +7686,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="117" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
     </row>
     <row r="2" spans="1:21" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
@@ -7701,11 +7978,11 @@
       </c>
       <c r="K10" s="38">
         <f ca="1">pricer_sf!M11</f>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="L10" s="38">
         <f ca="1">pricer_sf!N11</f>
-        <v>43313</v>
+        <v>43314</v>
       </c>
       <c r="M10" s="10">
         <f>pricer_sf!O11</f>
@@ -7783,11 +8060,11 @@
       </c>
       <c r="K11" s="38">
         <f ca="1">pricer_sf!M12</f>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="L11" s="38">
         <f ca="1">pricer_sf!N12</f>
-        <v>43313</v>
+        <v>43314</v>
       </c>
       <c r="M11" s="10">
         <f>pricer_sf!O12</f>
@@ -7865,11 +8142,11 @@
       </c>
       <c r="K12" s="38">
         <f ca="1">pricer_sf!M13</f>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="L12" s="38">
         <f ca="1">pricer_sf!N13</f>
-        <v>43313</v>
+        <v>43314</v>
       </c>
       <c r="M12" s="10">
         <f>pricer_sf!O13</f>
@@ -7947,11 +8224,11 @@
       </c>
       <c r="K13" s="38">
         <f ca="1">pricer_sf!M14</f>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="L13" s="38">
         <f ca="1">pricer_sf!N14</f>
-        <v>43405</v>
+        <v>43406</v>
       </c>
       <c r="M13" s="10">
         <f>pricer_sf!O14</f>
@@ -8029,11 +8306,11 @@
       </c>
       <c r="K14" s="38">
         <f ca="1">pricer_sf!M15</f>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="L14" s="38">
         <f ca="1">pricer_sf!N15</f>
-        <v>43405</v>
+        <v>43406</v>
       </c>
       <c r="M14" s="10">
         <f>pricer_sf!O15</f>
@@ -8111,11 +8388,11 @@
       </c>
       <c r="K15" s="38">
         <f ca="1">pricer_sf!M16</f>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="L15" s="38">
         <f ca="1">pricer_sf!N16</f>
-        <v>43405</v>
+        <v>43406</v>
       </c>
       <c r="M15" s="10">
         <f>pricer_sf!O16</f>
@@ -8801,10 +9078,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="139"/>
+      <c r="C1" s="140"/>
     </row>
     <row r="2" spans="1:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
@@ -8952,7 +9229,7 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>4098</v>
+        <v>4029</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
@@ -8969,11 +9246,11 @@
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43252</v>
+        <v>43253</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -8990,22 +9267,22 @@
       </c>
       <c r="S8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("price",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)*E8</f>
-        <v>-81.960000000000008</v>
+        <v>-80.58</v>
       </c>
       <c r="T8" s="25">
         <v>80</v>
       </c>
       <c r="U8" s="24">
         <f>T8/10000*P8*H8</f>
-        <v>2.6945753424657535</v>
+        <v>2.6492054794520548</v>
       </c>
       <c r="V8" s="24">
         <f>IF(S8&lt;=0,ABS(S8)+U8,S8-U8)</f>
-        <v>84.654575342465762</v>
+        <v>83.229205479452048</v>
       </c>
       <c r="W8" s="26">
         <f>V8/H8</f>
-        <v>2.0657534246575345E-2</v>
+        <v>2.0657534246575342E-2</v>
       </c>
       <c r="X8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("delta",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
@@ -9055,11 +9332,11 @@
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43402</v>
+        <v>43403</v>
       </c>
       <c r="O9" s="10">
         <v>180</v>
@@ -9167,11 +9444,11 @@
       </c>
       <c r="M11" s="8">
         <f t="shared" ref="M11:M16" ca="1" si="1">TODAY()</f>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="N11" s="8">
         <f t="shared" ref="N11:N16" ca="1" si="2">M11+O11</f>
-        <v>43313</v>
+        <v>43314</v>
       </c>
       <c r="O11" s="10">
         <v>91</v>
@@ -9254,11 +9531,11 @@
       </c>
       <c r="M12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43313</v>
+        <v>43314</v>
       </c>
       <c r="O12" s="10">
         <v>91</v>
@@ -9341,11 +9618,11 @@
       </c>
       <c r="M13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43313</v>
+        <v>43314</v>
       </c>
       <c r="O13" s="10">
         <v>91</v>
@@ -9428,11 +9705,11 @@
       </c>
       <c r="M14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43405</v>
+        <v>43406</v>
       </c>
       <c r="O14" s="10">
         <v>183</v>
@@ -9515,11 +9792,11 @@
       </c>
       <c r="M15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43405</v>
+        <v>43406</v>
       </c>
       <c r="O15" s="10">
         <v>183</v>
@@ -9602,11 +9879,11 @@
       </c>
       <c r="M16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43405</v>
+        <v>43406</v>
       </c>
       <c r="O16" s="10">
         <v>183</v>
@@ -10507,10 +10784,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="142" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="141"/>
+      <c r="C1" s="142"/>
     </row>
     <row r="2" spans="1:21" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
@@ -10642,18 +10919,18 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>4098</v>
+        <v>4029</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
       </c>
       <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="K8" s="21">
         <f ca="1">J8+L8</f>
-        <v>43252</v>
+        <v>43253</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -10667,30 +10944,30 @@
       </c>
       <c r="O8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>335.69495103893405</v>
+        <v>280.7543671552794</v>
       </c>
       <c r="P8" s="25">
         <v>80</v>
       </c>
       <c r="Q8" s="24">
         <f>P8/10000*M8*H8*(-E8)</f>
-        <v>2.6945753424657535</v>
+        <v>2.6492054794520548</v>
       </c>
       <c r="R8" s="24">
         <f>O8+Q8</f>
-        <v>338.38952638139978</v>
+        <v>283.40357263473146</v>
       </c>
       <c r="S8" s="26">
         <f>R8/H8</f>
-        <v>8.2574310976427465E-2</v>
+        <v>7.0340921477967597E-2</v>
       </c>
       <c r="T8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8,$C$4)</f>
-        <v>0.82323300111966091</v>
+        <v>0.76756949551963771</v>
       </c>
       <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>3.0369600101894321</v>
+        <v>3.5189880984112278</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
@@ -10722,11 +10999,11 @@
       </c>
       <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">J9+L9</f>
-        <v>43252</v>
+        <v>43253</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -10792,11 +11069,11 @@
       </c>
       <c r="J10" s="8">
         <f ca="1">TODAY()</f>
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">J10+L10</f>
-        <v>43252</v>
+        <v>43253</v>
       </c>
       <c r="L10" s="10">
         <v>30</v>
